--- a/救急病院データ作成2026.xlsx
+++ b/救急病院データ作成2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beppu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26856D39-6507-46FD-AA0F-E0FB6088DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4031DF4F-A49C-43BC-B5E9-0FC942F7BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11ACBD12-3626-4EF6-8E7D-EF5AD5725005}"/>
   </bookViews>
@@ -731,10 +731,10 @@
 df1["kind"] = 9
 df1["medical"] = "指定なし"
 df1["time"] = "09:00～17:00"
-holidays = xl(%P3%, headers=True)
+holidays = xl(%P3%, headers=True).iloc[:, 0]
 weeks = list("月火水木金土日")
 df1["week"] = df1["date"].dt.dayofweek.apply(lambda x: weeks[x] + "曜日")
-df1["week"] = df1["week"].mask(df2["date"].isin(holidays), "祝日")
+df1["week"] = df1["week"].mask(df1["date"].isin(holidays), "祝日")
 result = df1.reindex(columns = ["date", "week", "kind", "medical", "name", "time"]).sort_values(["date", "kind", "time"])
 result.reset_index(drop=True)</code>
     </pythonScript>
@@ -1209,204 +1209,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1942,6 +1744,204 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2352,61 +2352,61 @@
   <autoFilter ref="A3:K10" xr:uid="{48F08C0F-C396-440B-9414-8C455BCD8E1C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A0B5E54F-1BC1-46D4-9025-AEE501FAA57D}" name="name" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{D77EAFA5-A4FF-44CB-A4F6-510B291799AD}" name="1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F5818C60-5B2E-4BED-82F7-F95F5CE20832}" name="2" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0BD86AFE-6345-4323-BADE-8F880BF35D53}" name="3" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{966D328A-4680-49F7-AF6D-3086351D9FA0}" name="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00C79005-A230-4A9F-B7D9-048EF870ED63}" name="5" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{BC4D09BC-A39E-4C65-AE8E-53B70DAD96BA}" name="6" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{CFC29708-0AD5-4D7F-AB55-C90CA1B39657}" name="7" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E3E8BFCB-1865-4C3E-AD87-4E78F4D52B39}" name="8" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6DE61FFC-9ECA-49BB-BD1D-36B4C2C54414}" name="9" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{B141647A-DB14-408E-A8AF-1F4DE7EA0680}" name="10" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D77EAFA5-A4FF-44CB-A4F6-510B291799AD}" name="1" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{F5818C60-5B2E-4BED-82F7-F95F5CE20832}" name="2" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{0BD86AFE-6345-4323-BADE-8F880BF35D53}" name="3" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{966D328A-4680-49F7-AF6D-3086351D9FA0}" name="4" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00C79005-A230-4A9F-B7D9-048EF870ED63}" name="5" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{BC4D09BC-A39E-4C65-AE8E-53B70DAD96BA}" name="6" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{CFC29708-0AD5-4D7F-AB55-C90CA1B39657}" name="7" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{E3E8BFCB-1865-4C3E-AD87-4E78F4D52B39}" name="8" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{6DE61FFC-9ECA-49BB-BD1D-36B4C2C54414}" name="9" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{B141647A-DB14-408E-A8AF-1F4DE7EA0680}" name="10" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43AA877C-469D-4218-9271-58F88A641CA4}" name="特別データ" displayName="特別データ" ref="A1:D21" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="47" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43AA877C-469D-4218-9271-58F88A641CA4}" name="特別データ" displayName="特別データ" ref="A1:D21" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="A1:D21" xr:uid="{43AA877C-469D-4218-9271-58F88A641CA4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A85AABDA-9360-435D-A7FA-ABFD5EC81839}" name="day" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{9A3AE5C4-B1D8-435B-9092-92522116E708}" name="name" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{B3C08F62-5558-404F-8F50-191D36306C3F}" name="time" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{632404E6-6414-43E0-9F78-BE08F4032D84}" name="medical" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{A85AABDA-9360-435D-A7FA-ABFD5EC81839}" name="day" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9A3AE5C4-B1D8-435B-9092-92522116E708}" name="name" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{B3C08F62-5558-404F-8F50-191D36306C3F}" name="time" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{632404E6-6414-43E0-9F78-BE08F4032D84}" name="medical" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6562AE41-F9AF-4EE8-8C44-34123C6983FB}" name="小児科データ" displayName="小児科データ" ref="A1:G31" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6562AE41-F9AF-4EE8-8C44-34123C6983FB}" name="小児科データ" displayName="小児科データ" ref="A1:G31" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:G31" xr:uid="{6562AE41-F9AF-4EE8-8C44-34123C6983FB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F182381B-A986-40EB-9022-77806512A40A}" name="みぶ小児科" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{BCD0D7E8-D5BA-4EF6-92AC-0098BA53B1C5}" name="まつうらバンビクリニック" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{6906D8DE-394C-4D96-9E58-3BEEA9DDDAB6}" name="あおい小児科" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{59F0772A-B74E-4899-89B1-D5CDE55E41E2}" name="丹こどもクリニック" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{776F70A6-22CC-4302-A7EB-026A00264F57}" name="医師会市民病院" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{1B7D9248-06A3-4712-9A56-8CE4F682D66F}" name="県立今治病院" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{7E914779-6FEC-469E-9F45-0D28E8E22860}" name="済生会今治病院" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{F182381B-A986-40EB-9022-77806512A40A}" name="みぶ小児科" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{BCD0D7E8-D5BA-4EF6-92AC-0098BA53B1C5}" name="まつうらバンビクリニック" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{6906D8DE-394C-4D96-9E58-3BEEA9DDDAB6}" name="あおい小児科" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{59F0772A-B74E-4899-89B1-D5CDE55E41E2}" name="丹こどもクリニック" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{776F70A6-22CC-4302-A7EB-026A00264F57}" name="医師会市民病院" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{1B7D9248-06A3-4712-9A56-8CE4F682D66F}" name="県立今治病院" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{7E914779-6FEC-469E-9F45-0D28E8E22860}" name="済生会今治病院" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A082C862-0E74-4B48-BDB5-813B50765094}" name="島しょ部データ" displayName="島しょ部データ" ref="A1:G11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A082C862-0E74-4B48-BDB5-813B50765094}" name="島しょ部データ" displayName="島しょ部データ" ref="A1:G11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:G11" xr:uid="{A082C862-0E74-4B48-BDB5-813B50765094}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B8D754F9-70B1-4735-A948-0531C6D611E2}" name="喜多嶋診療所" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{CFACF28D-8E83-4032-8B19-282E5D931BBE}" name="有津むらかみクリニック" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{65CF6290-CD78-4B02-BE26-364605C8BAED}" name="大三島中央病院" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{22354A22-52D9-4D6D-967D-839539E16B23}" name="斎藤クリニック" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{64B64DD4-3FBC-4EE9-8764-81664BB7EA69}" name="片山医院" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{FD0DEC08-A948-46E3-B9C5-F434D5528865}" name="はかた外科胃腸科" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{F72C2A64-7203-424B-9337-1BE7CFCE6392}" name="しのざき整形外科" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{B8D754F9-70B1-4735-A948-0531C6D611E2}" name="喜多嶋診療所" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CFACF28D-8E83-4032-8B19-282E5D931BBE}" name="有津むらかみクリニック" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{65CF6290-CD78-4B02-BE26-364605C8BAED}" name="大三島中央病院" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{22354A22-52D9-4D6D-967D-839539E16B23}" name="斎藤クリニック" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{64B64DD4-3FBC-4EE9-8764-81664BB7EA69}" name="片山医院" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{FD0DEC08-A948-46E3-B9C5-F434D5528865}" name="はかた外科胃腸科" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{F72C2A64-7203-424B-9337-1BE7CFCE6392}" name="しのざき整形外科" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2420,8 +2420,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B85BE63D-3726-4123-840A-850FEE94BA09}" uniqueName="1" name="国民の祝日・休日月日" queryTableFieldId="1" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B7A95090-AAEE-4160-8AF0-BBB5C8182CDC}" uniqueName="2" name="国民の祝日・休日名称" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B85BE63D-3726-4123-840A-850FEE94BA09}" uniqueName="1" name="国民の祝日・休日月日" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B7A95090-AAEE-4160-8AF0-BBB5C8182CDC}" uniqueName="2" name="国民の祝日・休日名称" queryTableFieldId="2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3054,7 +3054,7 @@
         <v>45935</v>
       </c>
       <c r="B2" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C2" s="2">
         <v>9</v>
@@ -3074,7 +3074,7 @@
         <v>45942</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -3114,7 +3114,7 @@
         <v>45949</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -3134,7 +3134,7 @@
         <v>45956</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C6" s="2">
         <v>9</v>
@@ -3154,7 +3154,7 @@
         <v>45963</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
@@ -3194,7 +3194,7 @@
         <v>45970</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C9" s="2">
         <v>9</v>
@@ -3214,7 +3214,7 @@
         <v>45977</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -3274,7 +3274,7 @@
         <v>45991</v>
       </c>
       <c r="B13" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -3294,7 +3294,7 @@
         <v>45998</v>
       </c>
       <c r="B14" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C14" s="2">
         <v>9</v>
@@ -3314,7 +3314,7 @@
         <v>46005</v>
       </c>
       <c r="B15" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -3334,7 +3334,7 @@
         <v>46012</v>
       </c>
       <c r="B16" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C16" s="2">
         <v>9</v>
@@ -3354,7 +3354,7 @@
         <v>46019</v>
       </c>
       <c r="B17" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C17" s="2">
         <v>9</v>
@@ -3394,7 +3394,7 @@
         <v>46026</v>
       </c>
       <c r="B19" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C19" s="2">
         <v>9</v>
@@ -3414,7 +3414,7 @@
         <v>46033</v>
       </c>
       <c r="B20" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -3454,7 +3454,7 @@
         <v>46040</v>
       </c>
       <c r="B22" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -3474,7 +3474,7 @@
         <v>46047</v>
       </c>
       <c r="B23" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C23" s="2">
         <v>9</v>
@@ -3494,7 +3494,7 @@
         <v>46054</v>
       </c>
       <c r="B24" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C24" s="2">
         <v>9</v>
@@ -3514,7 +3514,7 @@
         <v>46061</v>
       </c>
       <c r="B25" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
@@ -3554,7 +3554,7 @@
         <v>46068</v>
       </c>
       <c r="B27" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C27" s="2">
         <v>9</v>
@@ -3574,7 +3574,7 @@
         <v>46075</v>
       </c>
       <c r="B28" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -3614,7 +3614,7 @@
         <v>46082</v>
       </c>
       <c r="B30" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C30" s="2">
         <v>9</v>
@@ -3634,7 +3634,7 @@
         <v>46089</v>
       </c>
       <c r="B31" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C31" s="2">
         <v>9</v>
@@ -3654,7 +3654,7 @@
         <v>46096</v>
       </c>
       <c r="B32" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C32" s="2">
         <v>9</v>
@@ -3694,7 +3694,7 @@
         <v>46103</v>
       </c>
       <c r="B34" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C34" s="2">
         <v>9</v>
@@ -3714,7 +3714,7 @@
         <v>46110</v>
       </c>
       <c r="B35" s="2" t="str">
-        <v>祝日</v>
+        <v>日曜日</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -4565,7 +4565,9 @@
   </sheetPr>
   <dimension ref="A1:B1068"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1034" sqref="A1034"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14551,23 +14553,23 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:AF11">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>B$2="祝"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>B$2="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>B$2="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:AF11">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>B$11&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AF11">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>DAY(AD$1)&lt;28</formula>
     </cfRule>
   </conditionalFormatting>
